--- a/Arrays Validity Check.xlsx
+++ b/Arrays Validity Check.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>Process</t>
   </si>
@@ -86,6 +86,12 @@
   <si>
     <t>CountAllBuckets</t>
   </si>
+  <si>
+    <t>Buckets redistributed</t>
+  </si>
+  <si>
+    <t>Bucket sorted</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +123,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +142,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -162,11 +210,293 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1274,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR38"/>
+  <dimension ref="A1:BR48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO40" sqref="AO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1631,7 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="16">
         <v>61</v>
       </c>
       <c r="D2">
@@ -1519,7 +1849,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="16">
         <v>61</v>
       </c>
       <c r="D5">
@@ -1738,7 +2068,7 @@
       <c r="K8">
         <v>79</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="16">
         <v>61</v>
       </c>
       <c r="M8">
@@ -1756,7 +2086,7 @@
       <c r="Q8">
         <v>60</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="11">
         <v>62</v>
       </c>
       <c r="S8" s="2">
@@ -1812,7 +2142,7 @@
       <c r="M10">
         <v>59</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="16">
         <v>61</v>
       </c>
       <c r="O10">
@@ -1972,10 +2302,10 @@
       <c r="I13">
         <v>60</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="16">
         <v>61</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="11">
         <v>62</v>
       </c>
       <c r="L13">
@@ -2321,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" ref="C21:R21" si="3">SUM(G17:G20)</f>
+        <f t="shared" ref="G21:R21" si="3">SUM(G17:G20)</f>
         <v>10</v>
       </c>
       <c r="H21" s="2">
@@ -2585,19 +2915,19 @@
       <c r="S28" s="5">
         <v>0</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="9">
         <v>4</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="12">
         <v>21</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="12">
         <v>22</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="12">
         <v>25</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="12">
         <v>36</v>
       </c>
       <c r="Y28">
@@ -2636,19 +2966,19 @@
       <c r="AJ28">
         <v>0</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="8">
         <v>4</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="16">
         <v>40</v>
       </c>
-      <c r="AM28">
+      <c r="AM28" s="16">
         <v>50</v>
       </c>
-      <c r="AN28">
+      <c r="AN28" s="16">
         <v>59</v>
       </c>
-      <c r="AO28">
+      <c r="AO28" s="16">
         <v>61</v>
       </c>
       <c r="AP28">
@@ -2687,19 +3017,19 @@
       <c r="BA28">
         <v>0</v>
       </c>
-      <c r="BB28">
+      <c r="BB28" s="15">
         <v>4</v>
       </c>
-      <c r="BC28">
+      <c r="BC28" s="11">
         <v>63</v>
       </c>
-      <c r="BD28">
+      <c r="BD28" s="11">
         <v>66</v>
       </c>
-      <c r="BE28">
+      <c r="BE28" s="11">
         <v>86</v>
       </c>
-      <c r="BF28">
+      <c r="BF28" s="11">
         <v>93</v>
       </c>
       <c r="BG28">
@@ -2797,13 +3127,13 @@
       <c r="S29" s="5">
         <v>0</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="9">
         <v>2</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="12">
         <v>21</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="12">
         <v>28</v>
       </c>
       <c r="W29">
@@ -2848,19 +3178,19 @@
       <c r="AJ29">
         <v>0</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="8">
         <v>4</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="16">
         <v>42</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" s="16">
         <v>45</v>
       </c>
-      <c r="AN29">
+      <c r="AN29" s="16">
         <v>56</v>
       </c>
-      <c r="AO29">
+      <c r="AO29" s="16">
         <v>57</v>
       </c>
       <c r="AP29">
@@ -2899,25 +3229,25 @@
       <c r="BA29">
         <v>0</v>
       </c>
-      <c r="BB29">
+      <c r="BB29" s="15">
         <v>6</v>
       </c>
-      <c r="BC29">
+      <c r="BC29" s="11">
         <v>69</v>
       </c>
-      <c r="BD29">
+      <c r="BD29" s="11">
         <v>72</v>
       </c>
-      <c r="BE29">
+      <c r="BE29" s="11">
         <v>72</v>
       </c>
-      <c r="BF29">
+      <c r="BF29" s="11">
         <v>85</v>
       </c>
-      <c r="BG29">
+      <c r="BG29" s="11">
         <v>87</v>
       </c>
-      <c r="BH29">
+      <c r="BH29" s="11">
         <v>94</v>
       </c>
       <c r="BI29">
@@ -3009,16 +3339,16 @@
       <c r="S30" s="5">
         <v>0</v>
       </c>
-      <c r="T30" s="5">
-        <v>3</v>
-      </c>
-      <c r="U30">
+      <c r="T30" s="9">
+        <v>3</v>
+      </c>
+      <c r="U30" s="12">
         <v>23</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="12">
         <v>28</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="12">
         <v>36</v>
       </c>
       <c r="X30">
@@ -3060,16 +3390,16 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AK30">
-        <v>3</v>
-      </c>
-      <c r="AL30">
+      <c r="AK30" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL30" s="16">
         <v>42</v>
       </c>
-      <c r="AM30">
+      <c r="AM30" s="16">
         <v>49</v>
       </c>
-      <c r="AN30">
+      <c r="AN30" s="16">
         <v>58</v>
       </c>
       <c r="AO30">
@@ -3111,25 +3441,25 @@
       <c r="BA30">
         <v>0</v>
       </c>
-      <c r="BB30">
+      <c r="BB30" s="15">
         <v>6</v>
       </c>
-      <c r="BC30">
+      <c r="BC30" s="11">
         <v>63</v>
       </c>
-      <c r="BD30">
+      <c r="BD30" s="11">
         <v>69</v>
       </c>
-      <c r="BE30">
+      <c r="BE30" s="11">
         <v>73</v>
       </c>
-      <c r="BF30">
+      <c r="BF30" s="11">
         <v>74</v>
       </c>
-      <c r="BG30">
+      <c r="BG30" s="11">
         <v>87</v>
       </c>
-      <c r="BH30">
+      <c r="BH30" s="11">
         <v>100</v>
       </c>
       <c r="BI30">
@@ -3221,7 +3551,7 @@
       <c r="S31" s="5">
         <v>0</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="9">
         <v>0</v>
       </c>
       <c r="U31">
@@ -3272,22 +3602,22 @@
       <c r="AJ31">
         <v>0</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" s="8">
         <v>5</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" s="16">
         <v>40</v>
       </c>
-      <c r="AM31">
+      <c r="AM31" s="16">
         <v>40</v>
       </c>
-      <c r="AN31">
+      <c r="AN31" s="16">
         <v>50</v>
       </c>
-      <c r="AO31">
+      <c r="AO31" s="16">
         <v>60</v>
       </c>
-      <c r="AP31">
+      <c r="AP31" s="16">
         <v>61</v>
       </c>
       <c r="AQ31">
@@ -3323,31 +3653,31 @@
       <c r="BA31">
         <v>0</v>
       </c>
-      <c r="BB31">
+      <c r="BB31" s="15">
         <v>8</v>
       </c>
-      <c r="BC31">
+      <c r="BC31" s="11">
         <v>62</v>
       </c>
-      <c r="BD31">
+      <c r="BD31" s="11">
         <v>67</v>
       </c>
-      <c r="BE31">
+      <c r="BE31" s="11">
         <v>68</v>
       </c>
-      <c r="BF31">
+      <c r="BF31" s="11">
         <v>75</v>
       </c>
-      <c r="BG31">
+      <c r="BG31" s="11">
         <v>79</v>
       </c>
-      <c r="BH31">
+      <c r="BH31" s="11">
         <v>82</v>
       </c>
-      <c r="BI31">
+      <c r="BI31" s="11">
         <v>98</v>
       </c>
-      <c r="BJ31">
+      <c r="BJ31" s="11">
         <v>100</v>
       </c>
       <c r="BK31">
@@ -3416,7 +3746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>SUM(C28:C31)</f>
         <v>15</v>
@@ -3465,7 +3795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
@@ -3491,7 +3821,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3511,7 +3841,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3531,7 +3861,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3551,27 +3881,910 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7">
+        <v>7</v>
+      </c>
+      <c r="F38" s="7">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7">
+        <v>18</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <v>4</v>
+      </c>
+      <c r="U38" s="10">
+        <v>7</v>
+      </c>
+      <c r="V38" s="10">
+        <v>8</v>
+      </c>
+      <c r="W38" s="10">
+        <v>9</v>
+      </c>
+      <c r="X38" s="10">
+        <v>14</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="10">
+        <v>9</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>17</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="13">
+        <v>3</v>
+      </c>
+      <c r="BC38" s="10">
+        <v>8</v>
+      </c>
+      <c r="BD38" s="10">
+        <v>11</v>
+      </c>
+      <c r="BE38" s="10">
+        <v>14</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="17">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12">
+        <v>21</v>
+      </c>
+      <c r="E39" s="12">
+        <v>22</v>
+      </c>
+      <c r="F39" s="12">
+        <v>25</v>
+      </c>
+      <c r="G39" s="12">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" s="14">
+        <v>2</v>
+      </c>
+      <c r="U39" s="12">
+        <v>21</v>
+      </c>
+      <c r="V39" s="12">
+        <v>28</v>
+      </c>
+      <c r="W39" s="12">
+        <v>0</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="17">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>23</v>
+      </c>
+      <c r="AM39" s="12">
+        <v>28</v>
+      </c>
+      <c r="AN39" s="12">
+        <v>36</v>
+      </c>
+      <c r="AO39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="17">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="19">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="18">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16">
+        <v>50</v>
+      </c>
+      <c r="F40" s="16">
+        <v>59</v>
+      </c>
+      <c r="G40" s="16">
+        <v>61</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" s="18">
+        <v>4</v>
+      </c>
+      <c r="U40" s="16">
+        <v>42</v>
+      </c>
+      <c r="V40" s="16">
+        <v>45</v>
+      </c>
+      <c r="W40" s="16">
+        <v>56</v>
+      </c>
+      <c r="X40" s="16">
+        <v>57</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="18">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="16">
+        <v>42</v>
+      </c>
+      <c r="AM40" s="16">
+        <v>49</v>
+      </c>
+      <c r="AN40" s="16">
+        <v>58</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="18">
+        <v>5</v>
+      </c>
+      <c r="BC40" s="16">
+        <v>40</v>
+      </c>
+      <c r="BD40" s="16">
+        <v>40</v>
+      </c>
+      <c r="BE40" s="16">
+        <v>50</v>
+      </c>
+      <c r="BF40">
+        <v>60</v>
+      </c>
+      <c r="BG40">
+        <v>61</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="15">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11">
+        <v>63</v>
+      </c>
+      <c r="E41" s="11">
+        <v>66</v>
+      </c>
+      <c r="F41" s="11">
+        <v>86</v>
+      </c>
+      <c r="G41" s="11">
+        <v>93</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" s="15">
+        <v>6</v>
+      </c>
+      <c r="U41" s="11">
+        <v>69</v>
+      </c>
+      <c r="V41" s="11">
+        <v>72</v>
+      </c>
+      <c r="W41" s="11">
+        <v>72</v>
+      </c>
+      <c r="X41" s="11">
+        <v>85</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>87</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>94</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="15">
+        <v>6</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>63</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>69</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>73</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>74</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>87</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>100</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="15">
+        <v>8</v>
+      </c>
+      <c r="BC41" s="11">
+        <v>62</v>
+      </c>
+      <c r="BD41" s="11">
+        <v>67</v>
+      </c>
+      <c r="BE41" s="11">
+        <v>68</v>
+      </c>
+      <c r="BF41" s="11">
+        <v>75</v>
+      </c>
+      <c r="BG41" s="11">
+        <v>79</v>
+      </c>
+      <c r="BH41" s="11">
+        <v>82</v>
+      </c>
+      <c r="BI41" s="11">
+        <v>98</v>
+      </c>
+      <c r="BJ41" s="11">
+        <v>100</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:R13">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>"""&lt;21"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:BN2 C5:R8 C10:R13">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
+      <formula>1</formula>
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+      <formula>22</formula>
+      <formula>40</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+      <formula>41</formula>
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>63</formula>
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/Arrays Validity Check.xlsx
+++ b/Arrays Validity Check.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Process</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Bucket sorted</t>
+  </si>
+  <si>
+    <t>NumToSort</t>
+  </si>
+  <si>
+    <t>recivecount</t>
+  </si>
+  <si>
+    <t>BucketsGathered</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -197,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -225,242 +237,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -478,14 +262,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1604,16 +1388,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR48"/>
+  <dimension ref="A1:BS53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO40" sqref="AO40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
@@ -1802,7 +1587,7 @@
       <c r="BG2">
         <v>79</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="18">
         <v>61</v>
       </c>
       <c r="BI2">
@@ -1820,7 +1605,7 @@
       <c r="BM2">
         <v>60</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="15">
         <v>62</v>
       </c>
     </row>
@@ -3746,7 +3531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>SUM(C28:C31)</f>
         <v>15</v>
@@ -3795,7 +3580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
@@ -3821,7 +3606,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3841,7 +3626,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3861,7 +3646,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3880,8 +3665,11 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS37" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -4092,8 +3880,12 @@
       <c r="BR38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS38" s="21">
+        <f>BB38+AK38+T38+T38</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4304,8 +4096,12 @@
       <c r="BR39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS39" s="21">
+        <f t="shared" ref="BS39:BS41" si="5">BB39+AK39+T39+T39</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4516,8 +4312,12 @@
       <c r="BR40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS40" s="21">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4728,38 +4528,482 @@
       <c r="BR41">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS41" s="21">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="AA43" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3</v>
+      </c>
+      <c r="F44" s="10">
+        <v>7</v>
+      </c>
+      <c r="G44" s="10">
+        <v>7</v>
+      </c>
+      <c r="H44" s="10">
+        <v>8</v>
+      </c>
+      <c r="I44" s="10">
+        <v>8</v>
+      </c>
+      <c r="J44" s="10">
+        <v>9</v>
+      </c>
+      <c r="K44" s="10">
+        <v>9</v>
+      </c>
+      <c r="L44" s="10">
+        <v>11</v>
+      </c>
+      <c r="M44" s="10">
+        <v>11</v>
+      </c>
+      <c r="N44" s="10">
+        <v>14</v>
+      </c>
+      <c r="O44" s="10">
+        <v>14</v>
+      </c>
+      <c r="P44" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>18</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="C45" s="12">
+        <v>21</v>
+      </c>
+      <c r="D45" s="12">
+        <v>21</v>
+      </c>
+      <c r="E45" s="12">
+        <v>22</v>
+      </c>
+      <c r="F45" s="12">
+        <v>23</v>
+      </c>
+      <c r="G45" s="12">
+        <v>25</v>
+      </c>
+      <c r="H45" s="12">
+        <v>28</v>
+      </c>
+      <c r="I45" s="12">
+        <v>28</v>
+      </c>
+      <c r="J45" s="12">
+        <v>36</v>
+      </c>
+      <c r="K45" s="12">
+        <v>36</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="C46" s="16">
+        <v>40</v>
+      </c>
+      <c r="D46" s="16">
+        <v>40</v>
+      </c>
+      <c r="E46" s="16">
+        <v>40</v>
+      </c>
+      <c r="F46" s="16">
+        <v>42</v>
+      </c>
+      <c r="G46" s="16">
+        <v>42</v>
+      </c>
+      <c r="H46" s="16">
+        <v>45</v>
+      </c>
+      <c r="I46" s="16">
+        <v>49</v>
+      </c>
+      <c r="J46" s="16">
+        <v>50</v>
+      </c>
+      <c r="K46" s="16">
+        <v>50</v>
+      </c>
+      <c r="L46" s="16">
+        <v>56</v>
+      </c>
+      <c r="M46" s="16">
+        <v>57</v>
+      </c>
+      <c r="N46" s="16">
+        <v>58</v>
+      </c>
+      <c r="O46" s="16">
+        <v>59</v>
+      </c>
+      <c r="P46" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>61</v>
+      </c>
+      <c r="R46" s="16">
+        <v>61</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" s="20" t="s">
+      <c r="C47" s="11">
+        <v>62</v>
+      </c>
+      <c r="D47" s="11">
+        <v>63</v>
+      </c>
+      <c r="E47" s="11">
+        <v>63</v>
+      </c>
+      <c r="F47" s="11">
+        <v>66</v>
+      </c>
+      <c r="G47" s="11">
+        <v>67</v>
+      </c>
+      <c r="H47" s="11">
+        <v>68</v>
+      </c>
+      <c r="I47" s="11">
+        <v>69</v>
+      </c>
+      <c r="J47" s="11">
+        <v>69</v>
+      </c>
+      <c r="K47" s="11">
+        <v>72</v>
+      </c>
+      <c r="L47" s="11">
+        <v>72</v>
+      </c>
+      <c r="M47" s="11">
+        <v>73</v>
+      </c>
+      <c r="N47" s="11">
+        <v>74</v>
+      </c>
+      <c r="O47" s="11">
+        <v>75</v>
+      </c>
+      <c r="P47" s="11">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>82</v>
+      </c>
+      <c r="R47" s="11">
+        <v>85</v>
+      </c>
+      <c r="S47" s="11">
+        <v>86</v>
+      </c>
+      <c r="T47" s="11">
+        <v>87</v>
+      </c>
+      <c r="U47" s="11">
+        <v>87</v>
+      </c>
+      <c r="V47" s="11">
+        <v>93</v>
+      </c>
+      <c r="W47" s="11">
+        <v>94</v>
+      </c>
+      <c r="X47" s="11">
+        <v>98</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>100</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>100</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="Z48" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="4">
+        <f>SUM(AA44:AA47)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3</v>
+      </c>
+      <c r="F50" s="10">
+        <v>7</v>
+      </c>
+      <c r="G50" s="10">
+        <v>7</v>
+      </c>
+      <c r="H50" s="10">
+        <v>8</v>
+      </c>
+      <c r="I50" s="10">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10">
+        <v>9</v>
+      </c>
+      <c r="K50" s="10">
+        <v>9</v>
+      </c>
+      <c r="L50" s="10">
+        <v>11</v>
+      </c>
+      <c r="M50" s="10">
+        <v>11</v>
+      </c>
+      <c r="N50" s="10">
+        <v>14</v>
+      </c>
+      <c r="O50" s="10">
+        <v>14</v>
+      </c>
+      <c r="P50" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>18</v>
+      </c>
+      <c r="R50" s="12">
         <v>21</v>
       </c>
+      <c r="S50" s="12">
+        <v>21</v>
+      </c>
+      <c r="T50" s="12">
+        <v>22</v>
+      </c>
+      <c r="U50" s="12">
+        <v>23</v>
+      </c>
+      <c r="V50" s="12">
+        <v>25</v>
+      </c>
+      <c r="W50" s="12">
+        <v>28</v>
+      </c>
+      <c r="X50" s="12">
+        <v>28</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>36</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>36</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>40</v>
+      </c>
+      <c r="AB50" s="16">
+        <v>40</v>
+      </c>
+      <c r="AC50" s="16">
+        <v>40</v>
+      </c>
+      <c r="AD50" s="16">
+        <v>42</v>
+      </c>
+      <c r="AE50" s="16">
+        <v>42</v>
+      </c>
+      <c r="AF50" s="16">
+        <v>45</v>
+      </c>
+      <c r="AG50" s="16">
+        <v>49</v>
+      </c>
+      <c r="AH50" s="16">
+        <v>50</v>
+      </c>
+      <c r="AI50" s="16">
+        <v>50</v>
+      </c>
+      <c r="AJ50" s="16">
+        <v>56</v>
+      </c>
+      <c r="AK50" s="16">
+        <v>57</v>
+      </c>
+      <c r="AL50" s="16">
+        <v>58</v>
+      </c>
+      <c r="AM50" s="16">
+        <v>59</v>
+      </c>
+      <c r="AN50" s="16">
+        <v>60</v>
+      </c>
+      <c r="AO50" s="16">
+        <v>61</v>
+      </c>
+      <c r="AP50" s="16">
+        <v>61</v>
+      </c>
+      <c r="AQ50" s="11">
+        <v>62</v>
+      </c>
+      <c r="AR50" s="11">
+        <v>63</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>63</v>
+      </c>
+      <c r="AT50" s="11">
+        <v>66</v>
+      </c>
+      <c r="AU50" s="11">
+        <v>67</v>
+      </c>
+      <c r="AV50" s="11">
+        <v>68</v>
+      </c>
+      <c r="AW50" s="11">
+        <v>69</v>
+      </c>
+      <c r="AX50" s="11">
+        <v>69</v>
+      </c>
+      <c r="AY50" s="11">
+        <v>72</v>
+      </c>
+      <c r="AZ50" s="11">
+        <v>72</v>
+      </c>
+      <c r="BA50" s="11">
+        <v>73</v>
+      </c>
+      <c r="BB50" s="11">
+        <v>74</v>
+      </c>
+      <c r="BC50" s="11">
+        <v>75</v>
+      </c>
+      <c r="BD50" s="11">
+        <v>79</v>
+      </c>
+      <c r="BE50" s="11">
+        <v>82</v>
+      </c>
+      <c r="BF50" s="11">
+        <v>85</v>
+      </c>
+      <c r="BG50" s="11">
+        <v>86</v>
+      </c>
+      <c r="BH50" s="11">
+        <v>87</v>
+      </c>
+      <c r="BI50" s="11">
+        <v>87</v>
+      </c>
+      <c r="BJ50" s="11">
+        <v>93</v>
+      </c>
+      <c r="BK50" s="11">
+        <v>94</v>
+      </c>
+      <c r="BL50" s="11">
+        <v>98</v>
+      </c>
+      <c r="BM50" s="11">
+        <v>100</v>
+      </c>
+      <c r="BN50" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="4">
+        <f>COUNT(C50:BN50)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:R13">
@@ -4768,21 +5012,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:BN2 C5:R8 C10:R13">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
-      <formula>1</formula>
-      <formula>21</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>63</formula>
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>41</formula>
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>22</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
-      <formula>41</formula>
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>63</formula>
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+      <formula>1</formula>
+      <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Arrays Validity Check.xlsx
+++ b/Arrays Validity Check.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="testCase" sheetId="2" r:id="rId1"/>
+    <sheet name="testCase1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Process</t>
   </si>
@@ -32,43 +32,19 @@
     <t>Array</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>*all</t>
-  </si>
-  <si>
-    <t>Splitters</t>
   </si>
   <si>
     <t>sum</t>
   </si>
   <si>
-    <t>Histogram</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Global Histogram</t>
-  </si>
-  <si>
     <t>diff(^ - Sum(Histogram)</t>
-  </si>
-  <si>
-    <t>count(A)</t>
   </si>
   <si>
     <t>Check(A/Ar)</t>
   </si>
   <si>
     <t>Buckets</t>
-  </si>
-  <si>
-    <t>Global Splitters</t>
-  </si>
-  <si>
-    <t>Ar sorted</t>
   </si>
   <si>
     <t>sum^</t>
@@ -108,6 +84,21 @@
   </si>
   <si>
     <t>Split Input (Ar)</t>
+  </si>
+  <si>
+    <t>Ar sorted (Ar)</t>
+  </si>
+  <si>
+    <t>Histogram (rAr)</t>
+  </si>
+  <si>
+    <t>Global Histogram (GlrAr)</t>
+  </si>
+  <si>
+    <t>Global Splitters (Spl)</t>
+  </si>
+  <si>
+    <t>Splitters (r)</t>
   </si>
 </sst>
 </file>
@@ -593,9 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -615,10 +604,10 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10">
         <v>61</v>
@@ -816,7 +805,7 @@
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <f>COUNT(C2:BN2)</f>
@@ -825,10 +814,10 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="S4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
@@ -836,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10">
         <v>61</v>
@@ -900,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" s="11">
         <v>85</v>
@@ -964,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11">
         <v>63</v>
@@ -1028,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11">
         <v>68</v>
@@ -1096,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
@@ -1154,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11">
         <v>7</v>
@@ -1212,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -1268,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11">
         <v>8</v>
@@ -1321,10 +1310,10 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -1377,7 +1366,7 @@
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="S16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -1385,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
@@ -1445,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C18" s="11">
         <v>0</v>
@@ -1496,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S19" si="2">SUM(C18:R18)</f>
+        <f t="shared" ref="S18:S20" si="2">SUM(C18:R18)</f>
         <v>16</v>
       </c>
     </row>
@@ -1505,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11">
         <v>2</v>
@@ -1565,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11">
         <v>0</v>
@@ -1615,13 +1604,14 @@
       <c r="R20" s="11">
         <v>3</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>7</v>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
         <f>SUM(C17:C20)</f>
@@ -1691,18 +1681,19 @@
         <f>SUM(C17:R20)</f>
         <v>61</v>
       </c>
+      <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="S22" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11">
         <v>2</v>
@@ -1758,8 +1749,8 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>9</v>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:R24" si="4">C23-C21</f>
@@ -1828,18 +1819,18 @@
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <v>62</v>
       </c>
     </row>
@@ -1851,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C28" s="15">
         <v>4</v>
@@ -2063,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C29" s="15">
         <v>4</v>
@@ -2275,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C30" s="15">
         <v>4</v>
@@ -2487,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C31" s="15">
         <v>3</v>
@@ -2696,10 +2687,10 @@
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2717,22 +2708,22 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.25">
@@ -2786,7 +2777,7 @@
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <f>D33+U33+AL33+BC33</f>
@@ -2830,7 +2821,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="BS35" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.25">
@@ -2838,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" s="15">
         <v>4</v>
@@ -3054,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C37" s="23">
         <v>4</v>
@@ -3270,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C38" s="12">
         <v>4</v>
@@ -3486,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C39" s="13">
         <v>4</v>
@@ -3702,7 +3693,7 @@
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AA41" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:71" x14ac:dyDescent="0.25">
@@ -3710,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C42" s="21">
         <v>1</v>
@@ -3766,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C43" s="26">
         <v>21</v>
@@ -3804,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C44" s="10">
         <v>40</v>
@@ -3863,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C45" s="14">
         <v>62</v>
@@ -3944,7 +3935,7 @@
     <row r="46" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="Z46" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA46" s="4">
         <f>SUM(AA42:AA45)</f>
@@ -3961,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C48" s="17">
         <v>15</v>
@@ -3995,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C49" s="17">
         <v>0</v>
@@ -4033,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C51" s="21">
         <v>1</v>
@@ -4230,7 +4221,7 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C52" s="4">
         <f>COUNT(C51:BN51)</f>
